--- a/Excel/Trilha Excel/Gráficos/01_Como Criar um Gráfico no Excel.xlsx
+++ b/Excel/Trilha Excel/Gráficos/01_Como Criar um Gráfico no Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matheus.lopes\GitPessoal\Hashtag_AnaliseDados\Excel\Trilha Excel\Gráficos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D321CA-F702-4159-B9C0-6A5DC9988CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2985725-D652-4BCE-8A9F-21C4499D644B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29100" yWindow="4275" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gráfico de Colunas" sheetId="1" r:id="rId1"/>
@@ -62,17 +62,28 @@
     <definedName name="Username" localSheetId="3">#REF!</definedName>
     <definedName name="Username">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
   <si>
     <t>Vendas</t>
   </si>
@@ -217,6 +228,12 @@
   <si>
     <t>Ano 2020</t>
   </si>
+  <si>
+    <t>META</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
 </sst>
 </file>
 
@@ -225,7 +242,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,8 +318,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -345,8 +375,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFABAB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -415,11 +451,107 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -428,9 +560,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -494,12 +623,155 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFABAB"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -525,42 +797,11 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -577,18 +818,23 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>'Gráfico de Colunas'!$B$3:$B$13</c:f>
@@ -672,9 +918,132 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1A1A-43D7-929D-87758169D0DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gráfico de Colunas'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>META</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Gráfico de Colunas'!$B$3:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Janeiro</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fevereiro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Março</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Abril</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Maio</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Junho</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Julho</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Agosto</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Setembro</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Outubro</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Novembro</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gráfico de Colunas'!$D$3:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7022-4428-80F0-D14A73FD811F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -686,11 +1055,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:smooth val="0"/>
         <c:axId val="2108579775"/>
         <c:axId val="2108581695"/>
-      </c:barChart>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="2108579775"/>
         <c:scaling>
@@ -698,20 +1066,39 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -722,7 +1109,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -749,11 +1138,23 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="90000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -777,7 +1178,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -812,11 +1215,14 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -910,7 +1316,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="92D050"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1179,6 +1585,3793 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Gráfico</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> Automático</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gráfico de Colunas Agrupadas'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ano 2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Gráfico de Colunas Agrupadas'!$B$3:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Janeiro</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fevereiro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Março</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Abril</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Maio</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Junho</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Julho</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Agosto</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Setembro</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Outubro</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Novembro</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dezembro</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gráfico de Colunas Agrupadas'!$C$3:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5318</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1692</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5977</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9258</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8111</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4639</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6895</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9620</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7443</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3177</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5780</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6380</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9581-42E3-89A8-E1A170964AC0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gráfico de Colunas Agrupadas'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ano 2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Gráfico de Colunas Agrupadas'!$B$3:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Janeiro</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fevereiro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Março</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Abril</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Maio</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Junho</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Julho</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Agosto</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Setembro</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Outubro</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Novembro</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dezembro</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gráfico de Colunas Agrupadas'!$D$3:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>9344</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6573</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6212</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5310</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9395</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4487</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9455</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2192</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2107</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4353</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9581-42E3-89A8-E1A170964AC0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="167082991"/>
+        <c:axId val="167083471"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="167082991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="167083471"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="167083471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="167082991"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Gráfico Feito por Mim</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gráfico de Colunas Agrupadas'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ano 2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Gráfico de Colunas Agrupadas'!$B$3:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Janeiro</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fevereiro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Março</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Abril</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Maio</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Junho</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Julho</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Agosto</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Setembro</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Outubro</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Novembro</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dezembro</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gráfico de Colunas Agrupadas'!$C$3:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5318</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1692</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5977</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9258</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8111</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4639</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6895</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9620</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7443</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3177</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5780</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6380</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7EB6-4126-8D57-D4958B5C1BA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gráfico de Colunas Agrupadas'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ano 2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Gráfico de Colunas Agrupadas'!$B$3:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Janeiro</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fevereiro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Março</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Abril</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Maio</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Junho</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Julho</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Agosto</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Setembro</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Outubro</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Novembro</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dezembro</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gráfico de Colunas Agrupadas'!$D$3:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>9344</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6573</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6212</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5310</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9395</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4487</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9455</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2192</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2107</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4353</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7EB6-4126-8D57-D4958B5C1BA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="167020591"/>
+        <c:axId val="167036431"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="167020591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="167036431"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="167036431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="167020591"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Gráfico Automático</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Eixo Secundário'!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vendas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Eixo Secundário'!$D$4:$D$15</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2015.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2016.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2017.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2018.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2018.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2019.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020.2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Eixo Secundário'!$E$4:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5690</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5990</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7010</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7210</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9210</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10220</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10460</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10780</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12210</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15320</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-09D0-4A9C-A40A-2D625DF17869}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Eixo Secundário'!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Devoluções</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Eixo Secundário'!$D$4:$D$15</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2015.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2016.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2017.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2018.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2018.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2019.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020.2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Eixo Secundário'!$F$4:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>410</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-09D0-4A9C-A40A-2D625DF17869}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="270649439"/>
+        <c:axId val="270647039"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="270649439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="270647039"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="270647039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="270649439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Gráfico Feito por mim</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Eixo Secundário'!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vendas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="10800000" algn="r" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="95000"/>
+                        <a:lumOff val="5000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Eixo Secundário'!$D$4:$D$15</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2015.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2016.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2017.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2018.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2018.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2019.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020.2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Eixo Secundário'!$E$4:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5690</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5990</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7010</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7210</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9210</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10220</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10460</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10780</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12210</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15320</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A612-458D-93E4-CCF2F2F15307}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inBase"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="270659039"/>
+        <c:axId val="270659999"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Eixo Secundário'!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Devoluções</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:prstDash val="lgDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="C00000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Eixo Secundário'!$D$4:$D$15</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2015.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2016.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2017.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2018.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2018.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2019.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020.2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Eixo Secundário'!$F$4:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>410</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A612-458D-93E4-CCF2F2F15307}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="270668639"/>
+        <c:axId val="270651839"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="270659039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="270659999"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="270659999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="270659039"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="270651839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="270668639"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="270668639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="270651839"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gráfico de Colunas Empilhadas'!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Projetos de BI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Gráfico de Colunas Empilhadas'!$E$2:$P$2</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44317</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44348</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44378</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44409</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44440</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44470</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44501</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44531</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gráfico de Colunas Empilhadas'!$E$3:$P$3</c:f>
+              <c:numCache>
+                <c:formatCode>"R$"\ #,##0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1830</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>945</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>878</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>844</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>837</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>820</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1016</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1567</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>828</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8571-480A-8AE3-1A0692195C40}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gráfico de Colunas Empilhadas'!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Projetos de Processos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Gráfico de Colunas Empilhadas'!$E$2:$P$2</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44317</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44348</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44378</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44409</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44440</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44470</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44501</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44531</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gráfico de Colunas Empilhadas'!$E$4:$P$4</c:f>
+              <c:numCache>
+                <c:formatCode>"R$"\ #,##0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1187</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1957</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1365</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>695</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1864</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1208</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1043</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>648</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8571-480A-8AE3-1A0692195C40}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gráfico de Colunas Empilhadas'!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Projetos Jurídicos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Gráfico de Colunas Empilhadas'!$E$2:$P$2</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44317</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44348</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44378</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44409</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44440</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44470</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44501</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44531</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gráfico de Colunas Empilhadas'!$E$5:$P$5</c:f>
+              <c:numCache>
+                <c:formatCode>"R$"\ #,##0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>583</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1122</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1249</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1894</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1070</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1944</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1321</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8571-480A-8AE3-1A0692195C40}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="270745439"/>
+        <c:axId val="270739679"/>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="270745439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="270739679"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="270739679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;R$&quot;\ #,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="270745439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gráfico de Colunas Empilhadas'!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Projetos de BI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Gráfico de Colunas Empilhadas'!$E$2:$P$2</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44317</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44348</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44378</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44409</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44440</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44470</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44501</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44531</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gráfico de Colunas Empilhadas'!$E$3:$P$3</c:f>
+              <c:numCache>
+                <c:formatCode>"R$"\ #,##0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1830</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>945</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>878</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>844</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>837</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>820</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1016</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1567</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>828</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DB42-4DDE-925C-220D42FABD8F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gráfico de Colunas Empilhadas'!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Projetos de Processos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Gráfico de Colunas Empilhadas'!$E$2:$P$2</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44317</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44348</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44378</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44409</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44440</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44470</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44501</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44531</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gráfico de Colunas Empilhadas'!$E$4:$P$4</c:f>
+              <c:numCache>
+                <c:formatCode>"R$"\ #,##0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1187</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1957</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1365</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>695</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1864</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1208</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1043</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>648</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DB42-4DDE-925C-220D42FABD8F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gráfico de Colunas Empilhadas'!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Projetos Jurídicos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFABAB"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Gráfico de Colunas Empilhadas'!$E$2:$P$2</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44317</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44348</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44378</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44409</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44440</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44470</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44501</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44531</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gráfico de Colunas Empilhadas'!$E$5:$P$5</c:f>
+              <c:numCache>
+                <c:formatCode>"R$"\ #,##0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>583</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1122</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1249</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1894</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1070</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1944</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1321</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DB42-4DDE-925C-220D42FABD8F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gráfico de Colunas Empilhadas'!$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.428793278053266E-3"/>
+                  <c:y val="7.3963235966094637E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-DB42-4DDE-925C-220D42FABD8F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="&quot;R$&quot;\ #,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gráfico de Colunas Empilhadas'!$E$6:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>"R$"\ #,##0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2770</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1740</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2648</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3266</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3331</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2781</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3229</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3936</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4554</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2797</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DB42-4DDE-925C-220D42FABD8F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="270671519"/>
+        <c:axId val="270666719"/>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="270671519"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="270666719"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="270666719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;R$&quot;\ #,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="270671519"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1259,7 +5452,796 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1762,7 +6744,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2265,20 +7247,2539 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>164224</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>11166</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>111673</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76856</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>624052</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>87366</xdr:rowOff>
+      <xdr:rowOff>74228</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2305,16 +9806,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>216776</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>4598</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>105104</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>63719</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>249621</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>203638</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>80798</xdr:rowOff>
+      <xdr:rowOff>61091</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2340,6 +9841,249 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>230798</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>27843</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>84259</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104043</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5D20A60-5926-56E4-56F0-7FE39A1BEDE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>201489</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>35169</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>36635</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{265A793F-E77F-F7AB-64C5-C0B0D67C08C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD8797FB-3381-C40C-D129-0F217FA3513C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>195262</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D38BCA40-52F9-DCA2-EC98-402F4C09505B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>90920</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>117764</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4662920</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>3464</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74B1F141-04CE-0CFB-3FE4-8A1B8EC412F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>17320</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>103910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>588820</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD645DFB-525F-D118-BED0-ED415E561695}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DF227A0E-E68D-455B-94F0-24A2B4AA8F06}" name="Tabela1" displayName="Tabela1" ref="B2:D13" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+  <autoFilter ref="B2:D13" xr:uid="{DF227A0E-E68D-455B-94F0-24A2B4AA8F06}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{E995D4A4-3BFE-4B33-A337-AD21784CE1BC}" name="Mês" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{89722CDC-A808-4FE1-BE9A-F8A9389423B2}" name="Vendas" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{A6181D63-7ED2-4D05-853E-72C93ED21E88}" name="META" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2605,10 +10349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:C13"/>
+  <dimension ref="B1:D13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2618,107 +10362,146 @@
     <col min="3" max="14" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+    <row r="1" spans="2:4" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="33" t="s">
         <v>0</v>
       </c>
+      <c r="D2" s="34" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="35" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1">
         <v>5318</v>
       </c>
+      <c r="D3" s="29">
+        <v>7500</v>
+      </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1">
         <v>1692</v>
       </c>
+      <c r="D4" s="29">
+        <v>7500</v>
+      </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="35" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1">
         <v>5977</v>
       </c>
+      <c r="D5" s="29">
+        <v>7500</v>
+      </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="35" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1">
         <v>9258</v>
       </c>
+      <c r="D6" s="29">
+        <v>7500</v>
+      </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="35" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1">
         <v>8111</v>
       </c>
+      <c r="D7" s="29">
+        <v>7500</v>
+      </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="35" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="1">
         <v>4639</v>
       </c>
+      <c r="D8" s="29">
+        <v>7500</v>
+      </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="35" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1">
         <v>6895</v>
       </c>
+      <c r="D9" s="29">
+        <v>7500</v>
+      </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="35" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="1">
         <v>9620</v>
       </c>
+      <c r="D10" s="29">
+        <v>7500</v>
+      </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="35" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="1">
         <v>7443</v>
       </c>
+      <c r="D11" s="29">
+        <v>7500</v>
+      </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="35" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="1">
         <v>3177</v>
       </c>
+      <c r="D12" s="29">
+        <v>7500</v>
+      </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="30">
         <v>5780</v>
+      </c>
+      <c r="D13" s="31">
+        <v>7500</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -2727,7 +10510,7 @@
   <dimension ref="B1:D14"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2742,10 +10525,10 @@
       <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2884,6 +10667,7 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2891,202 +10675,204 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9466A54-5353-412D-BA0C-0F8BE7522934}">
   <dimension ref="B1:F17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.42578125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="107" style="6" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="14" width="6.5703125" style="6" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="1.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="107" style="5" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="14" width="6.5703125" style="5" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="28"/>
-      <c r="D3" s="16" t="s">
+      <c r="B3" s="27"/>
+      <c r="D3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="15" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="15"/>
-      <c r="D4" s="8" t="s">
+      <c r="B4" s="14"/>
+      <c r="D4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>5690</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <v>120</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>5990</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>150</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>7010</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>160</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>7210</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>130</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>9100</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <v>180</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="13"/>
-      <c r="D9" s="8" t="s">
+      <c r="B9" s="12"/>
+      <c r="D9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>9210</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <v>210</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>10220</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <v>190</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>10460</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <v>240</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>10780</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <v>250</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="12"/>
-      <c r="D13" s="8" t="s">
+      <c r="B13" s="11"/>
+      <c r="D13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <v>12210</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <v>300</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <v>13010</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="7">
         <v>340</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="8">
         <v>15320</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
         <v>410</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3097,14 +10883,17 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F946B274-1865-4279-A5EA-41A02BBB26AA}">
-  <dimension ref="B1:P9"/>
+  <dimension ref="B1:P10"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3116,209 +10905,263 @@
   <sheetData>
     <row r="1" spans="2:16" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="25">
         <v>44197</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="25">
         <v>44228</v>
       </c>
-      <c r="G2" s="26">
+      <c r="G2" s="25">
         <v>44256</v>
       </c>
-      <c r="H2" s="26">
+      <c r="H2" s="25">
         <v>44287</v>
       </c>
-      <c r="I2" s="26">
+      <c r="I2" s="25">
         <v>44317</v>
       </c>
-      <c r="J2" s="26">
+      <c r="J2" s="25">
         <v>44348</v>
       </c>
-      <c r="K2" s="26">
+      <c r="K2" s="25">
         <v>44378</v>
       </c>
-      <c r="L2" s="26">
+      <c r="L2" s="25">
         <v>44409</v>
       </c>
-      <c r="M2" s="26">
+      <c r="M2" s="25">
         <v>44440</v>
       </c>
-      <c r="N2" s="26">
+      <c r="N2" s="25">
         <v>44470</v>
       </c>
-      <c r="O2" s="26">
+      <c r="O2" s="25">
         <v>44501</v>
       </c>
-      <c r="P2" s="26">
+      <c r="P2" s="25">
         <v>44531</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="29"/>
-      <c r="D3" s="25" t="s">
+      <c r="B3" s="28"/>
+      <c r="D3" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="23">
         <v>1830</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="23">
         <v>945</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="23">
         <v>878</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="23">
         <v>836</v>
       </c>
-      <c r="I3" s="24">
+      <c r="I3" s="23">
         <v>290</v>
       </c>
-      <c r="J3" s="24">
+      <c r="J3" s="23">
         <v>844</v>
       </c>
-      <c r="K3" s="24">
+      <c r="K3" s="23">
         <v>837</v>
       </c>
-      <c r="L3" s="24">
+      <c r="L3" s="23">
         <v>820</v>
       </c>
-      <c r="M3" s="24">
+      <c r="M3" s="23">
         <v>1002</v>
       </c>
-      <c r="N3" s="24">
+      <c r="N3" s="23">
         <v>1016</v>
       </c>
-      <c r="O3" s="24">
+      <c r="O3" s="23">
         <v>1567</v>
       </c>
-      <c r="P3" s="24">
+      <c r="P3" s="23">
         <v>828</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="29"/>
-      <c r="D4" s="23" t="s">
+      <c r="B4" s="28"/>
+      <c r="D4" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="21">
         <v>290</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="21">
         <v>505</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="21">
         <v>1187</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="21">
         <v>290</v>
       </c>
-      <c r="I4" s="22">
+      <c r="I4" s="21">
         <v>1957</v>
       </c>
-      <c r="J4" s="22">
+      <c r="J4" s="21">
         <v>1365</v>
       </c>
-      <c r="K4" s="22">
+      <c r="K4" s="21">
         <v>695</v>
       </c>
-      <c r="L4" s="22">
+      <c r="L4" s="21">
         <v>515</v>
       </c>
-      <c r="M4" s="22">
+      <c r="M4" s="21">
         <v>1864</v>
       </c>
-      <c r="N4" s="22">
+      <c r="N4" s="21">
         <v>1208</v>
       </c>
-      <c r="O4" s="22">
+      <c r="O4" s="21">
         <v>1043</v>
       </c>
-      <c r="P4" s="22">
+      <c r="P4" s="21">
         <v>648</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="19">
         <v>650</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="19">
         <v>290</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="19">
         <v>583</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="19">
         <v>994</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="19">
         <v>1019</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="19">
         <v>1122</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="19">
         <v>1249</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5" s="19">
         <v>1894</v>
       </c>
-      <c r="M5" s="20">
+      <c r="M5" s="19">
         <v>1070</v>
       </c>
-      <c r="N5" s="20">
+      <c r="N5" s="19">
         <v>770</v>
       </c>
-      <c r="O5" s="20">
+      <c r="O5" s="19">
         <v>1944</v>
       </c>
-      <c r="P5" s="20">
+      <c r="P5" s="19">
         <v>1321</v>
       </c>
     </row>
-    <row r="6" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
+    <row r="6" spans="2:16" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="38">
+        <f>SUM(E3:E5)</f>
+        <v>2770</v>
+      </c>
+      <c r="F6" s="38">
+        <f>SUM(F3:F5)</f>
+        <v>1740</v>
+      </c>
+      <c r="G6" s="38">
+        <f t="shared" ref="G6:P6" si="0">SUM(G3:G5)</f>
+        <v>2648</v>
+      </c>
+      <c r="H6" s="38">
+        <f t="shared" si="0"/>
+        <v>2120</v>
+      </c>
+      <c r="I6" s="38">
+        <f t="shared" si="0"/>
+        <v>3266</v>
+      </c>
+      <c r="J6" s="38">
+        <f t="shared" si="0"/>
+        <v>3331</v>
+      </c>
+      <c r="K6" s="38">
+        <f t="shared" si="0"/>
+        <v>2781</v>
+      </c>
+      <c r="L6" s="38">
+        <f t="shared" si="0"/>
+        <v>3229</v>
+      </c>
+      <c r="M6" s="38">
+        <f t="shared" si="0"/>
+        <v>3936</v>
+      </c>
+      <c r="N6" s="38">
+        <f t="shared" si="0"/>
+        <v>2994</v>
+      </c>
+      <c r="O6" s="38">
+        <f t="shared" si="0"/>
+        <v>4554</v>
+      </c>
+      <c r="P6" s="38">
+        <f t="shared" si="0"/>
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
         <v>41</v>
       </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
     </row>
-    <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="7" t="s">
+    <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
     </row>
-    <row r="9" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="17"/>
+    <row r="10" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:B4"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>